--- a/experiments/ana-flavia-NCxHSD-NC-trim/sheets/abundance-ranks-ana-flavia-NCxHSD-NC-trim.xlsx
+++ b/experiments/ana-flavia-NCxHSD-NC-trim/sheets/abundance-ranks-ana-flavia-NCxHSD-NC-trim.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="520">
   <si>
     <t>Total</t>
   </si>
@@ -31,40 +31,40 @@
     <t>HSD-NC</t>
   </si>
   <si>
-    <t>210421121673</t>
-  </si>
-  <si>
-    <t>210421121674</t>
-  </si>
-  <si>
-    <t>210421121675</t>
-  </si>
-  <si>
-    <t>210421121676</t>
-  </si>
-  <si>
-    <t>210421121688</t>
-  </si>
-  <si>
-    <t>210421121689</t>
-  </si>
-  <si>
-    <t>210421121690</t>
-  </si>
-  <si>
-    <t>210421121698</t>
-  </si>
-  <si>
-    <t>210421121699</t>
-  </si>
-  <si>
-    <t>210421121700</t>
-  </si>
-  <si>
-    <t>210421121701</t>
-  </si>
-  <si>
-    <t>210421121702</t>
+    <t>S210421121673</t>
+  </si>
+  <si>
+    <t>S210421121674</t>
+  </si>
+  <si>
+    <t>S210421121675</t>
+  </si>
+  <si>
+    <t>S210421121676</t>
+  </si>
+  <si>
+    <t>S210421121688</t>
+  </si>
+  <si>
+    <t>S210421121689</t>
+  </si>
+  <si>
+    <t>S210421121690</t>
+  </si>
+  <si>
+    <t>S210421121698</t>
+  </si>
+  <si>
+    <t>S210421121699</t>
+  </si>
+  <si>
+    <t>S210421121700</t>
+  </si>
+  <si>
+    <t>S210421121701</t>
+  </si>
+  <si>
+    <t>S210421121702</t>
   </si>
   <si>
     <t>d__Bacteria</t>
@@ -427,12 +427,12 @@
     <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Enterobacterales;f__Morganellaceae</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Actinobacteriota;c__Actinobacteria;o__Micrococcales;f__Micrococcaceae</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhizobiales;f__Beijerinckiaceae</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Actinobacteriota;c__Actinobacteria;o__Micrococcales;f__Micrococcaceae</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Caulobacterales;f__Caulobacteraceae</t>
   </si>
   <si>
@@ -571,24 +571,24 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__[Eubacterium]_siraeum_group</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__Christensenellaceae_R-7_group</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Incertae_Sedis</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__uncultured</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Burkholderia-Caballeronia-Paraburkholderia</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;__</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Blautia</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__Christensenellaceae_R-7_group</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Incertae_Sedis</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__uncultured</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Burkholderia-Caballeronia-Paraburkholderia</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;__</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__Colidextribacter</t>
   </si>
   <si>
@@ -703,12 +703,12 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Anaerovoracaceae;g__[Eubacterium]_nodatum_group</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__[Eubacterium]_hallii_group</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Deferribacterota;c__Deferribacteres;o__Deferribacterales;f__Deferribacteraceae;g__Mucispirillum</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__[Eubacterium]_hallii_group</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhizobiales;f__Rhizobiaceae;g__Allorhizobium-Neorhizobium-Pararhizobium-Rhizobium</t>
   </si>
   <si>
@@ -763,12 +763,12 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;__;__;__</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__Oscillospira</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Pasteurellales;f__Pasteurellaceae;g__Rodentibacter</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__Oscillospira</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Eubacteriales;f__Anaerofustaceae;g__Anaerofustis</t>
   </si>
   <si>
@@ -787,27 +787,27 @@
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Staphylococcales;f__Staphylococcaceae;g__Staphylococcus</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Candidatus_Stoquefichus</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__uncultured;f__uncultured;g__uncultured</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Oxalobacteraceae;g__Massilia</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__uncultured;f__uncultured;g__uncultured</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Dorea</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Candidatus_Stoquefichus</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Enterobacterales;f__Morganellaceae;g__Proteus</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhizobiales;f__Beijerinckiaceae;g__Methylobacterium-Methylorubrum</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Actinobacteriota;c__Actinobacteria;o__Micrococcales;f__Micrococcaceae;g__Rothia</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhizobiales;f__Beijerinckiaceae;g__Methylobacterium-Methylorubrum</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Actinobacteriota;c__Coriobacteriia;o__Coriobacteriales;f__Eggerthellaceae;g__Gordonibacter</t>
   </si>
   <si>
@@ -823,24 +823,24 @@
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Staphylococcales;f__Staphylococcaceae;g__Jeotgalicoccus</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__uncultured</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Lactobacillales;f__Enterococcaceae;g__Enterococcus</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__uncultured</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Paludicola</t>
   </si>
   <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__UCG-007</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Tuzzerella</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Pasteurellales;f__Pasteurellaceae;g__Haemophilus</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Tuzzerella</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Anaerovoracaceae;__</t>
   </si>
   <si>
@@ -871,6 +871,9 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;__;__</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Comamonadaceae;__</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Erysipelotrichaceae_UCG-003</t>
   </si>
   <si>
@@ -895,15 +898,15 @@
     <t>d__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Bacteroidales;f__Muribaculaceae;g__Muribaculaceae;s__uncultured_bacterium</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Bacteroidales;f__Bacteroidaceae;g__Bacteroides;s__Bacteroides_fragilis</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Bacteroidales;f__Prevotellaceae;g__Prevotellaceae_NK3B31_group;s__uncultured_bacterium</t>
   </si>
   <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Clostridiales;f__Clostridiaceae;g__Clostridium_sensu_stricto_1;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Bacteroidales;f__Bacteroidaceae;g__Bacteroides;s__Bacteroides_fragilis</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Peptostreptococcaceae;g__Romboutsia;__</t>
   </si>
   <si>
@@ -1030,39 +1033,39 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Ruminococcus;s__uncultured_Ruminococcus</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Burkholderia-Caballeronia-Paraburkholderia;__</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;__;__</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__uncultured;s__uncultured_Allobaculum</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Bacteroidales;f__Rikenellaceae;g__Alistipes;s__Alistipes_finegoldii</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__Christensenellaceae_R-7_group;__</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__[Eubacterium]_coprostanoligenes_group;g__[Eubacterium]_coprostanoligenes_group;s__uncultured_Clostridium</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Cyanobacteria;c__Vampirivibrionia;o__Gastranaerophilales;f__Gastranaerophilales;g__Gastranaerophilales;s__uncultured_bacterium</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__Colidextribacter;__</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Incertae_Sedis;s__uncultured_bacterium</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__[Clostridium]_innocuum_group;__</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Blautia;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Burkholderiaceae;g__Burkholderia-Caballeronia-Paraburkholderia;__</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;__;__</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__uncultured;s__uncultured_Allobaculum</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Bacteroidales;f__Rikenellaceae;g__Alistipes;s__Alistipes_finegoldii</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__Christensenellaceae_R-7_group;__</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__[Eubacterium]_coprostanoligenes_group;g__[Eubacterium]_coprostanoligenes_group;s__uncultured_Clostridium</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Cyanobacteria;c__Vampirivibrionia;o__Gastranaerophilales;f__Gastranaerophilales;g__Gastranaerophilales;s__uncultured_bacterium</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__Colidextribacter;__</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Incertae_Sedis;s__uncultured_bacterium</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__[Clostridium]_innocuum_group;__</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Actinobacteriota;c__Coriobacteriia;o__Coriobacteriales;f__Eggerthellaceae;g__Enterorhabdus;s__uncultured_bacterium</t>
   </si>
   <si>
@@ -1159,15 +1162,15 @@
     <t>d__Bacteria;p__Actinobacteriota;c__Coriobacteriia;o__Coriobacteriales;f__uncultured;g__uncultured;s__uncultured_bacterium</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Erysipelatoclostridium;__</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Butyricicoccaceae;g__Butyricicoccus;s__uncultured_bacterium</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__RF39;f__RF39;g__RF39;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Erysipelatoclostridium;__</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Butyricicoccaceae;g__Butyricicoccus;s__uncultured_bacterium</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Frisingicoccus;__</t>
   </si>
   <si>
@@ -1204,12 +1207,12 @@
     <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Comamonadaceae;g__Comamonas;__</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__Allobaculum;__</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__UCG-010;g__UCG-010;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__Allobaculum;__</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__UCG-004;s__uncultured_bacterium</t>
   </si>
   <si>
@@ -1219,12 +1222,12 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptococcales;f__Peptococcaceae;g__uncultured;s__unidentified</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__NK4A214_group;__</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__RF39;f__RF39;g__RF39;s__uncultured_Lachnospiraceae</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__NK4A214_group;__</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Clostridia_vadinBB60_group;f__Clostridia_vadinBB60_group;g__Clostridia_vadinBB60_group;s__uncultured_Clostridia</t>
   </si>
   <si>
@@ -1258,12 +1261,12 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Acetatifactor;__</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__uncultured;s__uncultured_bacterium</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__A2;s__uncultured_bacterium</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__uncultured;s__uncultured_bacterium</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Anaerostipes;__</t>
   </si>
   <si>
@@ -1315,12 +1318,12 @@
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__Holdemania;__</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__uncultured;s__uncultured_Clostridiales</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Erysipelatoclostridium;s__uncultured_bacterium</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__uncultured;s__uncultured_Clostridiales</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Lactobacillales;f__Aerococcaceae;g__Aerococcus;__</t>
   </si>
   <si>
@@ -1360,12 +1363,12 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Incertae_Sedis;s__uncultured_Clostridiales</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__Oscillospira;s__uncultured_bacterium</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Pasteurellales;f__Pasteurellaceae;g__Rodentibacter;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__Oscillospira;s__uncultured_bacterium</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Roseburia;s__uncultured_bacterium</t>
   </si>
   <si>
@@ -1375,24 +1378,24 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Lachnospiraceae_NK4A136_group;s__Clostridiales_bacterium</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Flavobacteriales;f__Weeksellaceae;g__Chryseobacterium;s__Chryseobacterium_hominis</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__[Eubacterium]_ventriosum_group;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Bacteroidota;c__Bacteroidia;o__Flavobacteriales;f__Weeksellaceae;g__Chryseobacterium;s__Chryseobacterium_hominis</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Eubacteriales;f__Anaerofustaceae;g__Anaerofustis;s__uncultured_bacterium</t>
   </si>
   <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__Christensenellaceae_R-7_group;s__bacterium_YE57</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Anaerovoracaceae;g__[Eubacterium]_brachy_group;s__uncultured_bacterium</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Anaerovoracaceae;g__[Eubacterium]_nodatum_group;s__uncultured_bacterium</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Anaerovoracaceae;g__[Eubacterium]_brachy_group;s__uncultured_bacterium</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Actinobacteriota;c__Actinobacteria;o__Corynebacteriales;f__Corynebacteriaceae;g__Corynebacterium;s__Corynebacterium_stationis</t>
   </si>
   <si>
@@ -1408,15 +1411,15 @@
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Staphylococcales;f__Staphylococcaceae;g__Staphylococcus;__</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__Allobaculum;s__uncultured_Allobaculum</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__uncultured;f__uncultured;g__uncultured;s__uncultured_bacterium</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Candidatus_Stoquefichus;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__uncultured;f__uncultured;g__uncultured;s__uncultured_bacterium</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__Allobaculum;s__uncultured_Allobaculum</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Oxalobacteraceae;g__Massilia;__</t>
   </si>
   <si>
@@ -1441,12 +1444,12 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Acetatifactor;s__uncultured_bacterium</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Lachnoclostridium;s__[Clostridium]_aldenense</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhizobiales;f__Beijerinckiaceae;g__Methylobacterium-Methylorubrum;s__Methylobacterium_aerolatum</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Lachnoclostridium;s__[Clostridium]_aldenense</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Anaerovoracaceae;g__Family_XIII_UCG-001;s__uncultured_bacterium</t>
   </si>
   <si>
@@ -1456,39 +1459,39 @@
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Staphylococcales;f__Staphylococcaceae;g__Jeotgalicoccus;__</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__uncultured;s__uncultured_bacterium</t>
+  </si>
+  <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__[Eubacterium]_ventriosum_group;s__uncultured_Clostridiales</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Lactobacillales;f__Enterococcaceae;g__Enterococcus;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__[Eubacterium]_ventriosum_group;s__uncultured_Clostridiales</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Christensenellales;f__Christensenellaceae;g__uncultured;s__uncultured_bacterium</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__Paludicola;s__uncultured_bacterium</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__NK4A214_group;s__Lachnospiraceae_bacterium</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__UCG-007;s__uncultured_bacterium</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Oscillospiraceae;g__NK4A214_group;s__Lachnospiraceae_bacterium</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__UCG-010;g__UCG-010;s__uncultured_rumen</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Pasteurellales;f__Pasteurellaceae;g__Haemophilus;__</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Tuzzerella;s__uncultured_bacterium</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Pasteurellales;f__Pasteurellaceae;g__Haemophilus;__</t>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Anaerovoracaceae;__;__</t>
   </si>
   <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Lactobacillales;f__Streptococcaceae;g__Lactococcus;__</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptostreptococcales-Tissierellales;f__Anaerovoracaceae;__;__</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Actinobacteriota;c__Coriobacteriia;o__Coriobacteriales;f__Coriobacteriales_Incertae_Sedis;g__uncultured;s__gut_metagenome</t>
   </si>
   <si>
@@ -1531,6 +1534,9 @@
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Erysipelotrichaceae_UCG-003;s__uncultured_bacterium</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Proteobacteria;c__Gammaproteobacteria;o__Burkholderiales;f__Comamonadaceae;__;__</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Lachnospirales;f__Lachnospiraceae;g__Lachnospiraceae_UCG-001;s__uncultured_bacterium</t>
   </si>
   <si>
@@ -1558,19 +1564,19 @@
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Oscillospirales;f__Ruminococcaceae;g__uncultured;__</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Erysipelatoclostridiaceae;s__uncultured_bacterium</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Campilobacterota;c__Campylobacteria;o__Campylobacterales;f__Helicobacteraceae;g__Helicobacter;s__Helicobacter_rodentium</t>
   </si>
   <si>
-    <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelatoclostridiaceae;g__Erysipelatoclostridiaceae;s__uncultured_bacterium</t>
-  </si>
-  <si>
     <t>d__Bacteria;p__Proteobacteria;c__Alphaproteobacteria;o__Rhizobiales;f__Beijerinckiaceae;g__Methylobacterium-Methylorubrum;s__Methylobacterium_hispanicum</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Eubacteriales;f__Anaerofustaceae;g__Anaerofustis;s__Anaerofustis_stercorihominis</t>
+  </si>
+  <si>
     <t>d__Bacteria;p__Firmicutes;c__Bacilli;o__Erysipelotrichales;f__Erysipelotrichaceae;g__uncultured;__</t>
-  </si>
-  <si>
-    <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Eubacteriales;f__Anaerofustaceae;g__Anaerofustis;s__Anaerofustis_stercorihominis</t>
   </si>
   <si>
     <t>d__Bacteria;p__Firmicutes;c__Clostridia;o__Peptococcales;f__Peptococcaceae;g__Peptococcus;s__uncultured_bacterium</t>
@@ -1989,31 +1995,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1721367</v>
+        <v>1768153</v>
       </c>
       <c r="C2">
-        <v>1308613</v>
+        <v>1355413</v>
       </c>
       <c r="D2">
-        <v>412754</v>
+        <v>412740</v>
       </c>
       <c r="E2">
-        <v>256338</v>
+        <v>259343</v>
       </c>
       <c r="F2">
-        <v>359389</v>
+        <v>398060</v>
       </c>
       <c r="G2">
-        <v>231694</v>
+        <v>232354</v>
       </c>
       <c r="H2">
-        <v>461192</v>
+        <v>465656</v>
       </c>
       <c r="I2">
-        <v>97767</v>
+        <v>97740</v>
       </c>
       <c r="J2">
-        <v>131909</v>
+        <v>131912</v>
       </c>
       <c r="K2">
         <v>94718</v>
@@ -2022,13 +2028,13 @@
         <v>9629</v>
       </c>
       <c r="M2">
-        <v>13427</v>
+        <v>13432</v>
       </c>
       <c r="N2">
         <v>12355</v>
       </c>
       <c r="O2">
-        <v>49039</v>
+        <v>49044</v>
       </c>
       <c r="P2">
         <v>3910</v>
@@ -2099,25 +2105,25 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>1072810</v>
+        <v>1119659</v>
       </c>
       <c r="C2">
-        <v>1019062</v>
+        <v>1065911</v>
       </c>
       <c r="D2">
         <v>53748</v>
       </c>
       <c r="E2">
-        <v>167436</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>268870</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>181726</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>401030</v>
+        <v>405492</v>
       </c>
       <c r="I2">
         <v>38267</v>
@@ -2149,28 +2155,28 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>540215</v>
+        <v>540137</v>
       </c>
       <c r="C3">
-        <v>211438</v>
+        <v>211387</v>
       </c>
       <c r="D3">
-        <v>328777</v>
+        <v>328750</v>
       </c>
       <c r="E3">
-        <v>80074</v>
+        <v>80284</v>
       </c>
       <c r="F3">
-        <v>72565</v>
+        <v>72139</v>
       </c>
       <c r="G3">
-        <v>11784</v>
+        <v>11949</v>
       </c>
       <c r="H3">
         <v>47015</v>
       </c>
       <c r="I3">
-        <v>46852</v>
+        <v>46825</v>
       </c>
       <c r="J3">
         <v>122696</v>
@@ -2249,13 +2255,13 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>35598</v>
+        <v>35613</v>
       </c>
       <c r="C5">
-        <v>28284</v>
+        <v>28286</v>
       </c>
       <c r="D5">
-        <v>7314</v>
+        <v>7327</v>
       </c>
       <c r="E5">
         <v>885</v>
@@ -2267,13 +2273,13 @@
         <v>2812</v>
       </c>
       <c r="H5">
-        <v>8729</v>
+        <v>8731</v>
       </c>
       <c r="I5">
         <v>654</v>
       </c>
       <c r="J5">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="K5">
         <v>1332</v>
@@ -2282,13 +2288,13 @@
         <v>220</v>
       </c>
       <c r="M5">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="N5">
         <v>445</v>
       </c>
       <c r="O5">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="P5">
         <v>123</v>
@@ -2709,25 +2715,25 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>1072810</v>
+        <v>1119659</v>
       </c>
       <c r="C2">
-        <v>1019062</v>
+        <v>1065911</v>
       </c>
       <c r="D2">
         <v>53748</v>
       </c>
       <c r="E2">
-        <v>167436</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>268870</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>181726</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>401030</v>
+        <v>405492</v>
       </c>
       <c r="I2">
         <v>38267</v>
@@ -2759,22 +2765,22 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>456181</v>
+        <v>456130</v>
       </c>
       <c r="C3">
-        <v>167527</v>
+        <v>167476</v>
       </c>
       <c r="D3">
         <v>288654</v>
       </c>
       <c r="E3">
-        <v>76816</v>
+        <v>77026</v>
       </c>
       <c r="F3">
-        <v>49200</v>
+        <v>48774</v>
       </c>
       <c r="G3">
-        <v>8770</v>
+        <v>8935</v>
       </c>
       <c r="H3">
         <v>32741</v>
@@ -2809,13 +2815,13 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>84034</v>
+        <v>84007</v>
       </c>
       <c r="C4">
         <v>43911</v>
       </c>
       <c r="D4">
-        <v>40123</v>
+        <v>40096</v>
       </c>
       <c r="E4">
         <v>3258</v>
@@ -2830,7 +2836,7 @@
         <v>14274</v>
       </c>
       <c r="I4">
-        <v>4886</v>
+        <v>4859</v>
       </c>
       <c r="J4">
         <v>14656</v>
@@ -2909,13 +2915,13 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>29471</v>
+        <v>29486</v>
       </c>
       <c r="C6">
-        <v>22440</v>
+        <v>22442</v>
       </c>
       <c r="D6">
-        <v>7031</v>
+        <v>7044</v>
       </c>
       <c r="E6">
         <v>885</v>
@@ -2927,13 +2933,13 @@
         <v>2812</v>
       </c>
       <c r="H6">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="I6">
         <v>648</v>
       </c>
       <c r="J6">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="K6">
         <v>1302</v>
@@ -2942,13 +2948,13 @@
         <v>211</v>
       </c>
       <c r="M6">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="N6">
         <v>437</v>
       </c>
       <c r="O6">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="P6">
         <v>123</v>
@@ -3469,25 +3475,25 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>1072749</v>
+        <v>1119598</v>
       </c>
       <c r="C2">
-        <v>1019062</v>
+        <v>1065911</v>
       </c>
       <c r="D2">
         <v>53687</v>
       </c>
       <c r="E2">
-        <v>167436</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>268870</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>181726</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>401030</v>
+        <v>405492</v>
       </c>
       <c r="I2">
         <v>38267</v>
@@ -3619,22 +3625,22 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>88488</v>
+        <v>88437</v>
       </c>
       <c r="C5">
-        <v>68190</v>
+        <v>68139</v>
       </c>
       <c r="D5">
         <v>20298</v>
       </c>
       <c r="E5">
-        <v>48927</v>
+        <v>49137</v>
       </c>
       <c r="F5">
-        <v>5851</v>
+        <v>5425</v>
       </c>
       <c r="G5">
-        <v>4967</v>
+        <v>5132</v>
       </c>
       <c r="H5">
         <v>8445</v>
@@ -3919,13 +3925,13 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>22502</v>
+        <v>22517</v>
       </c>
       <c r="C11">
-        <v>19424</v>
+        <v>19426</v>
       </c>
       <c r="D11">
-        <v>3078</v>
+        <v>3091</v>
       </c>
       <c r="E11">
         <v>188</v>
@@ -3937,13 +3943,13 @@
         <v>1185</v>
       </c>
       <c r="H11">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="I11">
         <v>264</v>
       </c>
       <c r="J11">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="K11">
         <v>258</v>
@@ -3952,13 +3958,13 @@
         <v>61</v>
       </c>
       <c r="M11">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="N11">
         <v>64</v>
       </c>
       <c r="O11">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P11">
         <v>51</v>
@@ -4469,13 +4475,13 @@
         <v>61</v>
       </c>
       <c r="B22">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="C22">
         <v>15</v>
       </c>
       <c r="D22">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4490,7 +4496,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="J22">
         <v>206</v>
@@ -5479,10 +5485,10 @@
         <v>80</v>
       </c>
       <c r="B2">
-        <v>642647</v>
+        <v>642997</v>
       </c>
       <c r="C2">
-        <v>591546</v>
+        <v>591896</v>
       </c>
       <c r="D2">
         <v>51101</v>
@@ -5491,13 +5497,13 @@
         <v>107417</v>
       </c>
       <c r="F2">
-        <v>112570</v>
+        <v>112575</v>
       </c>
       <c r="G2">
-        <v>111024</v>
+        <v>111032</v>
       </c>
       <c r="H2">
-        <v>260535</v>
+        <v>260872</v>
       </c>
       <c r="I2">
         <v>36725</v>
@@ -5529,25 +5535,25 @@
         <v>81</v>
       </c>
       <c r="B3">
-        <v>188800</v>
+        <v>235299</v>
       </c>
       <c r="C3">
-        <v>188043</v>
+        <v>234542</v>
       </c>
       <c r="D3">
         <v>757</v>
       </c>
       <c r="E3">
-        <v>26771</v>
+        <v>29566</v>
       </c>
       <c r="F3">
-        <v>115479</v>
+        <v>154571</v>
       </c>
       <c r="G3">
-        <v>15049</v>
+        <v>15536</v>
       </c>
       <c r="H3">
-        <v>30744</v>
+        <v>34869</v>
       </c>
       <c r="I3">
         <v>256</v>
@@ -5729,22 +5735,22 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>88406</v>
+        <v>88355</v>
       </c>
       <c r="C7">
-        <v>68108</v>
+        <v>68057</v>
       </c>
       <c r="D7">
         <v>20298</v>
       </c>
       <c r="E7">
-        <v>48927</v>
+        <v>49137</v>
       </c>
       <c r="F7">
-        <v>5831</v>
+        <v>5405</v>
       </c>
       <c r="G7">
-        <v>4967</v>
+        <v>5132</v>
       </c>
       <c r="H7">
         <v>8383</v>
@@ -6879,13 +6885,13 @@
         <v>108</v>
       </c>
       <c r="B30">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="C30">
         <v>15</v>
       </c>
       <c r="D30">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6900,7 +6906,7 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="J30">
         <v>206</v>
@@ -6929,13 +6935,13 @@
         <v>109</v>
       </c>
       <c r="B31">
-        <v>1320</v>
+        <v>1335</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>1320</v>
+        <v>1333</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6947,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K31">
         <v>25</v>
@@ -6962,13 +6968,13 @@
         <v>15</v>
       </c>
       <c r="M31">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="N31">
         <v>44</v>
       </c>
       <c r="O31">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -8232,10 +8238,10 @@
         <v>47</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -8244,16 +8250,16 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -8282,10 +8288,10 @@
         <v>47</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -8294,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J58">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -8781,7 +8787,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8839,10 +8845,10 @@
         <v>146</v>
       </c>
       <c r="B2">
-        <v>630641</v>
+        <v>630991</v>
       </c>
       <c r="C2">
-        <v>579572</v>
+        <v>579922</v>
       </c>
       <c r="D2">
         <v>51069</v>
@@ -8851,13 +8857,13 @@
         <v>105145</v>
       </c>
       <c r="F2">
-        <v>112442</v>
+        <v>112447</v>
       </c>
       <c r="G2">
-        <v>107668</v>
+        <v>107676</v>
       </c>
       <c r="H2">
-        <v>254317</v>
+        <v>254654</v>
       </c>
       <c r="I2">
         <v>36693</v>
@@ -8889,25 +8895,25 @@
         <v>147</v>
       </c>
       <c r="B3">
-        <v>188800</v>
+        <v>235299</v>
       </c>
       <c r="C3">
-        <v>188043</v>
+        <v>234542</v>
       </c>
       <c r="D3">
         <v>757</v>
       </c>
       <c r="E3">
-        <v>26771</v>
+        <v>29566</v>
       </c>
       <c r="F3">
-        <v>115479</v>
+        <v>154571</v>
       </c>
       <c r="G3">
-        <v>15049</v>
+        <v>15536</v>
       </c>
       <c r="H3">
-        <v>30744</v>
+        <v>34869</v>
       </c>
       <c r="I3">
         <v>256</v>
@@ -9389,22 +9395,22 @@
         <v>157</v>
       </c>
       <c r="B13">
-        <v>32833</v>
+        <v>33275</v>
       </c>
       <c r="C13">
-        <v>25454</v>
+        <v>25896</v>
       </c>
       <c r="D13">
         <v>7379</v>
       </c>
       <c r="E13">
-        <v>18951</v>
+        <v>19228</v>
       </c>
       <c r="F13">
         <v>179</v>
       </c>
       <c r="G13">
-        <v>620</v>
+        <v>785</v>
       </c>
       <c r="H13">
         <v>5704</v>
@@ -10089,16 +10095,16 @@
         <v>171</v>
       </c>
       <c r="B27">
-        <v>4572</v>
+        <v>4505</v>
       </c>
       <c r="C27">
-        <v>4392</v>
+        <v>4325</v>
       </c>
       <c r="D27">
         <v>180</v>
       </c>
       <c r="E27">
-        <v>1309</v>
+        <v>1242</v>
       </c>
       <c r="F27">
         <v>1328</v>
@@ -10689,46 +10695,46 @@
         <v>183</v>
       </c>
       <c r="B39">
-        <v>1973</v>
+        <v>1959</v>
       </c>
       <c r="C39">
-        <v>889</v>
+        <v>228</v>
       </c>
       <c r="D39">
-        <v>1084</v>
+        <v>1731</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>689</v>
+        <v>32</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H39">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="I39">
-        <v>25</v>
+        <v>424</v>
       </c>
       <c r="J39">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="K39">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>400</v>
       </c>
       <c r="M39">
-        <v>742</v>
+        <v>403</v>
       </c>
       <c r="N39">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -10739,49 +10745,49 @@
         <v>184</v>
       </c>
       <c r="B40">
-        <v>1959</v>
+        <v>1925</v>
       </c>
       <c r="C40">
-        <v>228</v>
+        <v>1370</v>
       </c>
       <c r="D40">
-        <v>1731</v>
+        <v>555</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1116</v>
       </c>
       <c r="F40">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="H40">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="I40">
-        <v>424</v>
+        <v>60</v>
       </c>
       <c r="J40">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="L40">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="M40">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="N40">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O40">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -10789,49 +10795,49 @@
         <v>185</v>
       </c>
       <c r="B41">
-        <v>1925</v>
+        <v>1796</v>
       </c>
       <c r="C41">
-        <v>1370</v>
+        <v>102</v>
       </c>
       <c r="D41">
-        <v>555</v>
+        <v>1694</v>
       </c>
       <c r="E41">
-        <v>1116</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>89</v>
       </c>
       <c r="I41">
-        <v>60</v>
+        <v>723</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="K41">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="L41">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="N41">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="P41">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -10839,46 +10845,46 @@
         <v>186</v>
       </c>
       <c r="B42">
-        <v>1796</v>
+        <v>1660</v>
       </c>
       <c r="C42">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="D42">
-        <v>1694</v>
+        <v>1405</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="I42">
-        <v>723</v>
+        <v>150</v>
       </c>
       <c r="J42">
-        <v>307</v>
+        <v>597</v>
       </c>
       <c r="K42">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M42">
-        <v>352</v>
+        <v>172</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O42">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -10889,49 +10895,49 @@
         <v>187</v>
       </c>
       <c r="B43">
-        <v>1660</v>
+        <v>1617</v>
       </c>
       <c r="C43">
-        <v>255</v>
+        <v>1145</v>
       </c>
       <c r="D43">
-        <v>1405</v>
+        <v>472</v>
       </c>
       <c r="E43">
-        <v>28</v>
+        <v>878</v>
       </c>
       <c r="F43">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H43">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="I43">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="J43">
-        <v>597</v>
+        <v>70</v>
       </c>
       <c r="K43">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>20</v>
       </c>
       <c r="O43">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -10939,49 +10945,49 @@
         <v>188</v>
       </c>
       <c r="B44">
-        <v>1617</v>
+        <v>1547</v>
       </c>
       <c r="C44">
-        <v>1145</v>
+        <v>463</v>
       </c>
       <c r="D44">
-        <v>472</v>
+        <v>1084</v>
       </c>
       <c r="E44">
-        <v>878</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="G44">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I44">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="J44">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="K44">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="N44">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="O44">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -11039,13 +11045,13 @@
         <v>190</v>
       </c>
       <c r="B46">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="C46">
         <v>15</v>
       </c>
       <c r="D46">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -11060,7 +11066,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="J46">
         <v>206</v>
@@ -12898,16 +12904,16 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="H83">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -12948,16 +12954,16 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F84">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="G84">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -13892,22 +13898,22 @@
         <v>69</v>
       </c>
       <c r="C103">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -13922,10 +13928,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="N103">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -13942,22 +13948,22 @@
         <v>69</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D104">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -13972,10 +13978,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -14292,14 +14298,14 @@
         <v>51</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
         <v>51</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
       <c r="F111">
         <v>0</v>
       </c>
@@ -14331,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="P111">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -14392,13 +14398,13 @@
         <v>51</v>
       </c>
       <c r="C113">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -14422,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -14431,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -14442,13 +14448,13 @@
         <v>51</v>
       </c>
       <c r="C114">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E114">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -14472,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -14542,10 +14548,10 @@
         <v>47</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -14554,16 +14560,16 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J116">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -14592,10 +14598,10 @@
         <v>47</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -14604,16 +14610,16 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -14892,25 +14898,25 @@
         <v>36</v>
       </c>
       <c r="C123">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -14942,25 +14948,25 @@
         <v>36</v>
       </c>
       <c r="C124">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D124">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -15092,13 +15098,13 @@
         <v>27</v>
       </c>
       <c r="C127">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E127">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -15107,10 +15113,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -15142,13 +15148,13 @@
         <v>27</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D128">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -15157,10 +15163,10 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -15692,10 +15698,10 @@
         <v>15</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -15707,28 +15713,28 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
       <c r="L139">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N139">
         <v>0</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -15739,13 +15745,13 @@
         <v>284</v>
       </c>
       <c r="B140">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C140">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -15757,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -15769,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -15789,13 +15795,13 @@
         <v>285</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -15807,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -15831,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -15839,13 +15845,13 @@
         <v>286</v>
       </c>
       <c r="B142">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -15866,7 +15872,7 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -15881,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -15889,19 +15895,19 @@
         <v>287</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -15916,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L143">
         <v>0</v>
@@ -15989,48 +15995,98 @@
         <v>289</v>
       </c>
       <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>7</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>7</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146">
         <v>4</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
         <v>4</v>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-      <c r="O145">
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
         <v>4</v>
       </c>
-      <c r="P145">
+      <c r="P146">
         <v>0</v>
       </c>
     </row>
@@ -16041,7 +16097,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P229"/>
+  <dimension ref="A1:P230"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16096,13 +16152,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2">
-        <v>531641</v>
+        <v>531974</v>
       </c>
       <c r="C2">
-        <v>482629</v>
+        <v>482962</v>
       </c>
       <c r="D2">
         <v>49012</v>
@@ -16114,10 +16170,10 @@
         <v>87969</v>
       </c>
       <c r="G2">
-        <v>82534</v>
+        <v>82542</v>
       </c>
       <c r="H2">
-        <v>215863</v>
+        <v>216188</v>
       </c>
       <c r="I2">
         <v>35546</v>
@@ -16146,49 +16202,49 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3">
-        <v>128921</v>
+        <v>136248</v>
       </c>
       <c r="C3">
-        <v>128014</v>
+        <v>136186</v>
       </c>
       <c r="D3">
-        <v>907</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>7749</v>
+        <v>8410</v>
       </c>
       <c r="F3">
-        <v>204</v>
+        <v>114211</v>
       </c>
       <c r="G3">
-        <v>32288</v>
+        <v>1436</v>
       </c>
       <c r="H3">
-        <v>87773</v>
+        <v>12129</v>
       </c>
       <c r="I3">
-        <v>675</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -16196,107 +16252,107 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B4">
-        <v>122176</v>
+        <v>128921</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>128014</v>
       </c>
       <c r="D4">
-        <v>122167</v>
+        <v>907</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7749</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>32288</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>87773</v>
       </c>
       <c r="I4">
-        <v>5903</v>
+        <v>675</v>
       </c>
       <c r="J4">
-        <v>57206</v>
+        <v>142</v>
       </c>
       <c r="K4">
-        <v>22299</v>
+        <v>25</v>
       </c>
       <c r="L4">
-        <v>3874</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="O4">
-        <v>32364</v>
+        <v>15</v>
       </c>
       <c r="P4">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B5">
-        <v>89813</v>
+        <v>122176</v>
       </c>
       <c r="C5">
-        <v>89751</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>122167</v>
       </c>
       <c r="E5">
-        <v>5654</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>75120</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>953</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8024</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>62</v>
+        <v>5903</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>57206</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22299</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3874</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>32364</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B6">
         <v>88673</v>
@@ -16346,13 +16402,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B7">
-        <v>86682</v>
+        <v>86687</v>
       </c>
       <c r="C7">
-        <v>84832</v>
+        <v>84837</v>
       </c>
       <c r="D7">
         <v>1850</v>
@@ -16361,7 +16417,7 @@
         <v>6418</v>
       </c>
       <c r="F7">
-        <v>23726</v>
+        <v>23731</v>
       </c>
       <c r="G7">
         <v>24240</v>
@@ -16396,7 +16452,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B8">
         <v>57891</v>
@@ -16446,28 +16502,28 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B9">
-        <v>50986</v>
+        <v>51050</v>
       </c>
       <c r="C9">
-        <v>50316</v>
+        <v>50380</v>
       </c>
       <c r="D9">
         <v>670</v>
       </c>
       <c r="E9">
-        <v>17352</v>
+        <v>17391</v>
       </c>
       <c r="F9">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="G9">
-        <v>14096</v>
+        <v>14100</v>
       </c>
       <c r="H9">
-        <v>16716</v>
+        <v>16736</v>
       </c>
       <c r="I9">
         <v>194</v>
@@ -16496,7 +16552,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B10">
         <v>47982</v>
@@ -16546,7 +16602,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B11">
         <v>43448</v>
@@ -16596,7 +16652,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B12">
         <v>40325</v>
@@ -16646,7 +16702,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B13">
         <v>40108</v>
@@ -16696,25 +16752,25 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B14">
-        <v>32833</v>
+        <v>33275</v>
       </c>
       <c r="C14">
-        <v>25454</v>
+        <v>25896</v>
       </c>
       <c r="D14">
         <v>7379</v>
       </c>
       <c r="E14">
-        <v>18951</v>
+        <v>19228</v>
       </c>
       <c r="F14">
         <v>179</v>
       </c>
       <c r="G14">
-        <v>620</v>
+        <v>785</v>
       </c>
       <c r="H14">
         <v>5704</v>
@@ -16746,7 +16802,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B15">
         <v>29017</v>
@@ -16796,7 +16852,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B16">
         <v>28750</v>
@@ -16846,7 +16902,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B17">
         <v>27668</v>
@@ -16896,7 +16952,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B18">
         <v>25679</v>
@@ -16946,7 +17002,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B19">
         <v>24913</v>
@@ -16996,7 +17052,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B20">
         <v>19311</v>
@@ -17046,13 +17102,13 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B21">
-        <v>12318</v>
+        <v>12330</v>
       </c>
       <c r="C21">
-        <v>12111</v>
+        <v>12123</v>
       </c>
       <c r="D21">
         <v>207</v>
@@ -17067,7 +17123,7 @@
         <v>894</v>
       </c>
       <c r="H21">
-        <v>8006</v>
+        <v>8018</v>
       </c>
       <c r="I21">
         <v>188</v>
@@ -17096,7 +17152,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B22">
         <v>12006</v>
@@ -17146,7 +17202,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B23">
         <v>10978</v>
@@ -17196,7 +17252,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B24">
         <v>10906</v>
@@ -17246,7 +17302,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B25">
         <v>10800</v>
@@ -17296,7 +17352,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B26">
         <v>7654</v>
@@ -17346,7 +17402,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B27">
         <v>6388</v>
@@ -17396,7 +17452,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B28">
         <v>6333</v>
@@ -17446,7 +17502,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B29">
         <v>5617</v>
@@ -17496,7 +17552,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B30">
         <v>5547</v>
@@ -17546,7 +17602,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B31">
         <v>5210</v>
@@ -17596,7 +17652,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B32">
         <v>4786</v>
@@ -17646,7 +17702,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B33">
         <v>4611</v>
@@ -17696,19 +17752,19 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B34">
-        <v>4507</v>
+        <v>4440</v>
       </c>
       <c r="C34">
-        <v>4381</v>
+        <v>4314</v>
       </c>
       <c r="D34">
         <v>126</v>
       </c>
       <c r="E34">
-        <v>1298</v>
+        <v>1231</v>
       </c>
       <c r="F34">
         <v>1328</v>
@@ -17746,7 +17802,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B35">
         <v>4170</v>
@@ -17796,7 +17852,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36">
         <v>4162</v>
@@ -17846,7 +17902,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37">
         <v>3785</v>
@@ -17896,7 +17952,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B38">
         <v>3411</v>
@@ -17946,7 +18002,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B39">
         <v>3357</v>
@@ -17996,7 +18052,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40">
         <v>3129</v>
@@ -18046,7 +18102,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B41">
         <v>3092</v>
@@ -18096,7 +18152,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42">
         <v>2811</v>
@@ -18146,7 +18202,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B43">
         <v>2559</v>
@@ -18196,7 +18252,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44">
         <v>2272</v>
@@ -18246,7 +18302,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45">
         <v>2080</v>
@@ -18296,7 +18352,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B46">
         <v>1974</v>
@@ -18346,7 +18402,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B47">
         <v>1757</v>
@@ -18396,49 +18452,49 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48">
-        <v>1714</v>
+        <v>1660</v>
       </c>
       <c r="C48">
-        <v>699</v>
+        <v>255</v>
       </c>
       <c r="D48">
-        <v>1015</v>
+        <v>1405</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F48">
-        <v>689</v>
+        <v>153</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I48">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>742</v>
+        <v>172</v>
       </c>
       <c r="N48">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -18446,149 +18502,149 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B49">
-        <v>1660</v>
+        <v>1617</v>
       </c>
       <c r="C49">
-        <v>255</v>
+        <v>1145</v>
       </c>
       <c r="D49">
-        <v>1405</v>
+        <v>472</v>
       </c>
       <c r="E49">
-        <v>28</v>
+        <v>878</v>
       </c>
       <c r="F49">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H49">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="I49">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="J49">
-        <v>597</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>20</v>
       </c>
       <c r="O49">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B50">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="C50">
-        <v>1145</v>
+        <v>51</v>
       </c>
       <c r="D50">
-        <v>472</v>
+        <v>1556</v>
       </c>
       <c r="E50">
-        <v>878</v>
+        <v>13</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="I50">
-        <v>192</v>
+        <v>659</v>
       </c>
       <c r="J50">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="K50">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="N50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="P50">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B51">
-        <v>1607</v>
+        <v>1565</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>1507</v>
       </c>
       <c r="D51">
-        <v>1556</v>
+        <v>58</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>38</v>
+        <v>1225</v>
       </c>
       <c r="I51">
-        <v>659</v>
+        <v>26</v>
       </c>
       <c r="J51">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -18596,49 +18652,49 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B52">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="C52">
-        <v>1507</v>
+        <v>177</v>
       </c>
       <c r="D52">
-        <v>58</v>
+        <v>1384</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H52">
-        <v>1225</v>
+        <v>80</v>
       </c>
       <c r="I52">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -18646,49 +18702,49 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B53">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="C53">
-        <v>177</v>
+        <v>1554</v>
       </c>
       <c r="D53">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>80</v>
+        <v>1554</v>
       </c>
       <c r="I53">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -18696,19 +18752,19 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B54">
-        <v>1554</v>
+        <v>1450</v>
       </c>
       <c r="C54">
-        <v>1554</v>
+        <v>1445</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -18717,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1554</v>
+        <v>1383</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -18729,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -18746,28 +18802,28 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B55">
-        <v>1450</v>
+        <v>1404</v>
       </c>
       <c r="C55">
-        <v>1445</v>
+        <v>1309</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E55">
-        <v>62</v>
+        <v>974</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H55">
-        <v>1383</v>
+        <v>202</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -18776,10 +18832,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -18796,81 +18852,81 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B56">
-        <v>1404</v>
+        <v>1292</v>
       </c>
       <c r="C56">
-        <v>1309</v>
+        <v>833</v>
       </c>
       <c r="D56">
-        <v>95</v>
+        <v>459</v>
       </c>
       <c r="E56">
-        <v>974</v>
+        <v>720</v>
       </c>
       <c r="F56">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="H56">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B57">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C57">
-        <v>833</v>
+        <v>1289</v>
       </c>
       <c r="D57">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="G57">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -18879,48 +18935,48 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B58">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C58">
-        <v>1289</v>
+        <v>273</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1289</v>
+        <v>263</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -18929,13 +18985,13 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -18946,7 +19002,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59">
         <v>1214</v>
@@ -18996,7 +19052,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B60">
         <v>1137</v>
@@ -19046,7 +19102,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B61">
         <v>1114</v>
@@ -19096,7 +19152,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B62">
         <v>1068</v>
@@ -19146,7 +19202,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B63">
         <v>1061</v>
@@ -19196,7 +19252,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B64">
         <v>1001</v>
@@ -19246,7 +19302,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B65">
         <v>995</v>
@@ -19296,7 +19352,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B66">
         <v>993</v>
@@ -19346,7 +19402,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B67">
         <v>913</v>
@@ -19396,7 +19452,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B68">
         <v>903</v>
@@ -19446,7 +19502,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B69">
         <v>882</v>
@@ -19496,7 +19552,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B70">
         <v>827</v>
@@ -19546,7 +19602,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B71">
         <v>768</v>
@@ -19596,7 +19652,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B72">
         <v>763</v>
@@ -19646,7 +19702,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B73">
         <v>750</v>
@@ -19696,7 +19752,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B74">
         <v>720</v>
@@ -19746,7 +19802,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B75">
         <v>716</v>
@@ -19796,7 +19852,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B76">
         <v>693</v>
@@ -19846,7 +19902,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77">
         <v>645</v>
@@ -19896,7 +19952,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B78">
         <v>645</v>
@@ -19946,7 +20002,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B79">
         <v>624</v>
@@ -19996,7 +20052,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B80">
         <v>615</v>
@@ -20046,7 +20102,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B81">
         <v>603</v>
@@ -20096,7 +20152,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B82">
         <v>563</v>
@@ -20146,7 +20202,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B83">
         <v>560</v>
@@ -20196,7 +20252,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B84">
         <v>547</v>
@@ -20246,7 +20302,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B85">
         <v>545</v>
@@ -20296,7 +20352,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B86">
         <v>539</v>
@@ -20346,7 +20402,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B87">
         <v>537</v>
@@ -20396,7 +20452,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B88">
         <v>535</v>
@@ -20446,7 +20502,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B89">
         <v>533</v>
@@ -20496,7 +20552,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B90">
         <v>523</v>
@@ -20546,46 +20602,46 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B91">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="D91">
-        <v>485</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -20596,34 +20652,34 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B92">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C92">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="F92">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -20635,10 +20691,10 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -20646,19 +20702,19 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B93">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C93">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>84</v>
+        <v>458</v>
       </c>
       <c r="E93">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -20667,28 +20723,28 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J93">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="O93">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -20696,7 +20752,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B94">
         <v>435</v>
@@ -20746,7 +20802,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B95">
         <v>404</v>
@@ -20796,7 +20852,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B96">
         <v>379</v>
@@ -20846,7 +20902,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B97">
         <v>372</v>
@@ -20896,7 +20952,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B98">
         <v>354</v>
@@ -20946,7 +21002,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B99">
         <v>353</v>
@@ -20996,7 +21052,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B100">
         <v>349</v>
@@ -21046,7 +21102,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B101">
         <v>339</v>
@@ -21096,7 +21152,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B102">
         <v>333</v>
@@ -21146,7 +21202,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B103">
         <v>325</v>
@@ -21196,7 +21252,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B104">
         <v>321</v>
@@ -21246,7 +21302,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B105">
         <v>319</v>
@@ -21296,16 +21352,16 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B106">
         <v>318</v>
       </c>
       <c r="C106">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -21317,10 +21373,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -21332,10 +21388,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -21346,16 +21402,16 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B107">
         <v>318</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="D107">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -21367,10 +21423,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -21382,10 +21438,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -21396,7 +21452,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B108">
         <v>317</v>
@@ -21446,7 +21502,7 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B109">
         <v>312</v>
@@ -21496,7 +21552,7 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B110">
         <v>311</v>
@@ -21546,16 +21602,16 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B111">
         <v>300</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -21567,45 +21623,45 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I111">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="J111">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
       <c r="M111">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O111">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="P111">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B112">
         <v>300</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -21617,36 +21673,36 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N112">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B113">
         <v>286</v>
@@ -21696,7 +21752,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B114">
         <v>276</v>
@@ -21746,7 +21802,7 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B115">
         <v>259</v>
@@ -21796,7 +21852,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B116">
         <v>259</v>
@@ -21846,7 +21902,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B117">
         <v>245</v>
@@ -21896,7 +21952,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B118">
         <v>244</v>
@@ -21946,7 +22002,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B119">
         <v>221</v>
@@ -21996,7 +22052,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B120">
         <v>221</v>
@@ -22046,7 +22102,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B121">
         <v>196</v>
@@ -22096,7 +22152,7 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B122">
         <v>194</v>
@@ -22146,7 +22202,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B123">
         <v>188</v>
@@ -22196,16 +22252,16 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B124">
         <v>184</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D124">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -22217,22 +22273,22 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -22246,16 +22302,16 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B125">
         <v>184</v>
       </c>
       <c r="C125">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -22267,22 +22323,22 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
       <c r="M125">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -22296,7 +22352,7 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B126">
         <v>182</v>
@@ -22346,7 +22402,7 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B127">
         <v>175</v>
@@ -22396,7 +22452,7 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B128">
         <v>169</v>
@@ -22446,7 +22502,7 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B129">
         <v>168</v>
@@ -22496,7 +22552,7 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B130">
         <v>164</v>
@@ -22546,7 +22602,7 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B131">
         <v>158</v>
@@ -22596,7 +22652,7 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B132">
         <v>157</v>
@@ -22646,7 +22702,7 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B133">
         <v>152</v>
@@ -22696,7 +22752,7 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B134">
         <v>150</v>
@@ -22746,7 +22802,7 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B135">
         <v>140</v>
@@ -22796,7 +22852,7 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -22846,7 +22902,7 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B137">
         <v>134</v>
@@ -22896,7 +22952,7 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B138">
         <v>124</v>
@@ -22946,7 +23002,7 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B139">
         <v>119</v>
@@ -22996,7 +23052,7 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B140">
         <v>117</v>
@@ -23046,7 +23102,7 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B141">
         <v>115</v>
@@ -23096,7 +23152,7 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B142">
         <v>109</v>
@@ -23146,16 +23202,16 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B143">
         <v>108</v>
       </c>
       <c r="C143">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -23167,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -23182,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -23191,21 +23247,21 @@
         <v>0</v>
       </c>
       <c r="P143">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B144">
         <v>108</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D144">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -23217,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I144">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -23232,7 +23288,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -23241,12 +23297,12 @@
         <v>0</v>
       </c>
       <c r="P144">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B145">
         <v>105</v>
@@ -23296,7 +23352,7 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B146">
         <v>103</v>
@@ -23346,7 +23402,7 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B147">
         <v>98</v>
@@ -23396,7 +23452,7 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B148">
         <v>96</v>
@@ -23446,7 +23502,7 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B149">
         <v>94</v>
@@ -23496,7 +23552,7 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B150">
         <v>84</v>
@@ -23546,7 +23602,7 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B151">
         <v>83</v>
@@ -23596,7 +23652,7 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B152">
         <v>82</v>
@@ -23646,7 +23702,7 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B153">
         <v>82</v>
@@ -23696,7 +23752,7 @@
     </row>
     <row r="154" spans="1:16">
       <c r="A154" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B154">
         <v>80</v>
@@ -23746,7 +23802,7 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B155">
         <v>78</v>
@@ -23796,7 +23852,7 @@
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B156">
         <v>70</v>
@@ -23846,7 +23902,7 @@
     </row>
     <row r="157" spans="1:16">
       <c r="A157" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B157">
         <v>70</v>
@@ -23896,28 +23952,28 @@
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B158">
         <v>69</v>
       </c>
       <c r="C158">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -23932,10 +23988,10 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="N158">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O158">
         <v>0</v>
@@ -23946,28 +24002,28 @@
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B159">
         <v>69</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D159">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -23982,10 +24038,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N159">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -23996,7 +24052,7 @@
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B160">
         <v>65</v>
@@ -24046,7 +24102,7 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B161">
         <v>63</v>
@@ -24096,7 +24152,7 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B162">
         <v>62</v>
@@ -24146,19 +24202,19 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B163">
         <v>61</v>
       </c>
       <c r="C163">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E163">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -24170,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -24188,7 +24244,7 @@
         <v>0</v>
       </c>
       <c r="O163">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -24196,19 +24252,19 @@
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B164">
         <v>61</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D164">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -24220,7 +24276,7 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -24238,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="O164">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -24246,7 +24302,7 @@
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B165">
         <v>60</v>
@@ -24296,7 +24352,7 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B166">
         <v>59</v>
@@ -24346,7 +24402,7 @@
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B167">
         <v>58</v>
@@ -24370,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="I167">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -24385,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -24396,7 +24452,7 @@
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B168">
         <v>58</v>
@@ -24420,13 +24476,13 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J168">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K168">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L168">
         <v>0</v>
@@ -24435,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="N168">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -24446,7 +24502,7 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B169">
         <v>57</v>
@@ -24496,7 +24552,7 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B170">
         <v>57</v>
@@ -24546,7 +24602,7 @@
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B171">
         <v>55</v>
@@ -24596,7 +24652,7 @@
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B172">
         <v>54</v>
@@ -24646,7 +24702,7 @@
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B173">
         <v>52</v>
@@ -24696,49 +24752,49 @@
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B174">
         <v>51</v>
       </c>
       <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
         <v>51</v>
       </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
       <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
         <v>51</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="M174">
-        <v>0</v>
-      </c>
-      <c r="N174">
-        <v>0</v>
-      </c>
-      <c r="O174">
-        <v>0</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -24746,7 +24802,7 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B175">
         <v>51</v>
@@ -24796,20 +24852,20 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B176">
         <v>51</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
         <v>51</v>
       </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
       <c r="F176">
         <v>0</v>
       </c>
@@ -24838,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -24846,7 +24902,7 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B177">
         <v>51</v>
@@ -24896,7 +24952,7 @@
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B178">
         <v>51</v>
@@ -24946,7 +25002,7 @@
     </row>
     <row r="179" spans="1:16">
       <c r="A179" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B179">
         <v>50</v>
@@ -24996,7 +25052,7 @@
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B180">
         <v>47</v>
@@ -25046,7 +25102,7 @@
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B181">
         <v>45</v>
@@ -25096,7 +25152,7 @@
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B182">
         <v>44</v>
@@ -25146,7 +25202,7 @@
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B183">
         <v>44</v>
@@ -25196,7 +25252,7 @@
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B184">
         <v>42</v>
@@ -25246,23 +25302,23 @@
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B185">
         <v>41</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
         <v>41</v>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
       <c r="G185">
         <v>0</v>
       </c>
@@ -25273,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -25296,34 +25352,34 @@
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B186">
         <v>41</v>
       </c>
       <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
         <v>41</v>
       </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
         <v>41</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -25346,7 +25402,7 @@
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B187">
         <v>40</v>
@@ -25396,7 +25452,7 @@
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B188">
         <v>38</v>
@@ -25446,7 +25502,7 @@
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B189">
         <v>38</v>
@@ -25496,31 +25552,31 @@
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B190">
         <v>36</v>
       </c>
       <c r="C190">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -25546,7 +25602,7 @@
     </row>
     <row r="191" spans="1:16">
       <c r="A191" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B191">
         <v>36</v>
@@ -25596,31 +25652,31 @@
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B192">
         <v>36</v>
       </c>
       <c r="C192">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D192">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H192">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -25646,7 +25702,7 @@
     </row>
     <row r="193" spans="1:16">
       <c r="A193" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B193">
         <v>32</v>
@@ -25696,17 +25752,17 @@
     </row>
     <row r="194" spans="1:16">
       <c r="A194" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B194">
         <v>30</v>
       </c>
       <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
         <v>30</v>
       </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -25717,10 +25773,10 @@
         <v>0</v>
       </c>
       <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
         <v>30</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -25746,31 +25802,31 @@
     </row>
     <row r="195" spans="1:16">
       <c r="A195" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B195">
         <v>30</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
         <v>30</v>
       </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
       <c r="I195">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -25796,7 +25852,7 @@
     </row>
     <row r="196" spans="1:16">
       <c r="A196" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B196">
         <v>29</v>
@@ -25846,19 +25902,19 @@
     </row>
     <row r="197" spans="1:16">
       <c r="A197" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B197">
         <v>27</v>
       </c>
       <c r="C197">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D197">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -25867,10 +25923,10 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -25896,19 +25952,19 @@
     </row>
     <row r="198" spans="1:16">
       <c r="A198" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B198">
         <v>27</v>
       </c>
       <c r="C198">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E198">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -25917,10 +25973,10 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -25946,34 +26002,34 @@
     </row>
     <row r="199" spans="1:16">
       <c r="A199" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B199">
         <v>26</v>
       </c>
       <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
         <v>26</v>
       </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
       <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
         <v>26</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199">
-        <v>0</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -25996,23 +26052,23 @@
     </row>
     <row r="200" spans="1:16">
       <c r="A200" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B200">
         <v>26</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
         <v>26</v>
       </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
       <c r="G200">
         <v>0</v>
       </c>
@@ -26023,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -26046,7 +26102,7 @@
     </row>
     <row r="201" spans="1:16">
       <c r="A201" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B201">
         <v>25</v>
@@ -26096,7 +26152,7 @@
     </row>
     <row r="202" spans="1:16">
       <c r="A202" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B202">
         <v>25</v>
@@ -26146,7 +26202,7 @@
     </row>
     <row r="203" spans="1:16">
       <c r="A203" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B203">
         <v>24</v>
@@ -26196,7 +26252,7 @@
     </row>
     <row r="204" spans="1:16">
       <c r="A204" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B204">
         <v>24</v>
@@ -26246,7 +26302,7 @@
     </row>
     <row r="205" spans="1:16">
       <c r="A205" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B205">
         <v>23</v>
@@ -26296,7 +26352,7 @@
     </row>
     <row r="206" spans="1:16">
       <c r="A206" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B206">
         <v>23</v>
@@ -26346,7 +26402,7 @@
     </row>
     <row r="207" spans="1:16">
       <c r="A207" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B207">
         <v>21</v>
@@ -26396,7 +26452,7 @@
     </row>
     <row r="208" spans="1:16">
       <c r="A208" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B208">
         <v>20</v>
@@ -26446,7 +26502,7 @@
     </row>
     <row r="209" spans="1:16">
       <c r="A209" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B209">
         <v>19</v>
@@ -26496,7 +26552,7 @@
     </row>
     <row r="210" spans="1:16">
       <c r="A210" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B210">
         <v>19</v>
@@ -26546,7 +26602,7 @@
     </row>
     <row r="211" spans="1:16">
       <c r="A211" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B211">
         <v>18</v>
@@ -26596,7 +26652,7 @@
     </row>
     <row r="212" spans="1:16">
       <c r="A212" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B212">
         <v>17</v>
@@ -26646,7 +26702,7 @@
     </row>
     <row r="213" spans="1:16">
       <c r="A213" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B213">
         <v>16</v>
@@ -26696,7 +26752,7 @@
     </row>
     <row r="214" spans="1:16">
       <c r="A214" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B214">
         <v>15</v>
@@ -26746,16 +26802,16 @@
     </row>
     <row r="215" spans="1:16">
       <c r="A215" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B215">
         <v>15</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -26767,28 +26823,28 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
       <c r="L215">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M215">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N215">
         <v>0</v>
       </c>
       <c r="O215">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -26796,16 +26852,16 @@
     </row>
     <row r="216" spans="1:16">
       <c r="A216" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C216">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -26817,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -26829,7 +26885,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -26846,13 +26902,13 @@
     </row>
     <row r="217" spans="1:16">
       <c r="A217" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B217">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C217">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -26867,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -26896,13 +26952,13 @@
     </row>
     <row r="218" spans="1:16">
       <c r="A218" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B218">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C218">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -26911,13 +26967,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -26946,23 +27002,23 @@
     </row>
     <row r="219" spans="1:16">
       <c r="A219" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B219">
         <v>11</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
         <v>11</v>
       </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
       <c r="G219">
         <v>0</v>
       </c>
@@ -26991,21 +27047,21 @@
         <v>0</v>
       </c>
       <c r="P219">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:16">
       <c r="A220" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B220">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C220">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -27014,7 +27070,7 @@
         <v>0</v>
       </c>
       <c r="G220">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -27041,31 +27097,31 @@
         <v>0</v>
       </c>
       <c r="P220">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:16">
       <c r="A221" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B221">
         <v>10</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
         <v>10</v>
       </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
       <c r="H221">
         <v>0</v>
       </c>
@@ -27088,7 +27144,7 @@
         <v>0</v>
       </c>
       <c r="O221">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -27096,16 +27152,16 @@
     </row>
     <row r="222" spans="1:16">
       <c r="A222" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B222">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -27126,7 +27182,7 @@
         <v>0</v>
       </c>
       <c r="K222">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L222">
         <v>0</v>
@@ -27138,7 +27194,7 @@
         <v>0</v>
       </c>
       <c r="O222">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -27146,16 +27202,16 @@
     </row>
     <row r="223" spans="1:16">
       <c r="A223" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B223">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223">
         <v>0</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -27170,13 +27226,13 @@
         <v>0</v>
       </c>
       <c r="I223">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J223">
         <v>0</v>
       </c>
       <c r="K223">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -27196,22 +27252,22 @@
     </row>
     <row r="224" spans="1:16">
       <c r="A224" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B224">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -27220,7 +27276,7 @@
         <v>0</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J224">
         <v>0</v>
@@ -27246,7 +27302,7 @@
     </row>
     <row r="225" spans="1:16">
       <c r="A225" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B225">
         <v>7</v>
@@ -27296,22 +27352,22 @@
     </row>
     <row r="226" spans="1:16">
       <c r="A226" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E226">
         <v>0</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -27320,7 +27376,7 @@
         <v>0</v>
       </c>
       <c r="I226">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -27346,16 +27402,16 @@
     </row>
     <row r="227" spans="1:16">
       <c r="A227" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B227">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -27370,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -27379,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="L227">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -27396,7 +27452,7 @@
     </row>
     <row r="228" spans="1:16">
       <c r="A228" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B228">
         <v>5</v>
@@ -27446,51 +27502,101 @@
     </row>
     <row r="229" spans="1:16">
       <c r="A229" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>5</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16">
+      <c r="A230" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B230">
         <v>4</v>
       </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-      <c r="D229">
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
         <v>4</v>
       </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>0</v>
-      </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-      <c r="J229">
-        <v>0</v>
-      </c>
-      <c r="K229">
-        <v>0</v>
-      </c>
-      <c r="L229">
-        <v>0</v>
-      </c>
-      <c r="M229">
-        <v>0</v>
-      </c>
-      <c r="N229">
-        <v>0</v>
-      </c>
-      <c r="O229">
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
         <v>4</v>
       </c>
-      <c r="P229">
+      <c r="P230">
         <v>0</v>
       </c>
     </row>
